--- a/CubeSat_HW/CubeSAT_Power/Gerbers_Power/CPL.xlsx
+++ b/CubeSat_HW/CubeSAT_Power/Gerbers_Power/CPL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\CubeSat\CubeSat_HW\CubeSAT_Power\Gerbers_Power\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8F2E3B-710F-4FB9-9ADE-AF1CC7ABDFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FD0CAE-F9A1-4445-8E5B-8070183191E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="744" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>Designator</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Q3</t>
   </si>
   <si>
-    <t>J4</t>
-  </si>
-  <si>
     <t>Q2</t>
   </si>
   <si>
@@ -77,6 +74,12 @@
   </si>
   <si>
     <t>`</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>J3</t>
   </si>
 </sst>
 </file>
@@ -434,19 +437,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="F5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -491,7 +494,7 @@
         <v>138</v>
       </c>
       <c r="C3" s="3">
-        <v>-99.84</v>
+        <v>-99.46</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -502,47 +505,47 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3">
-        <v>126.855</v>
+        <v>142.24</v>
       </c>
       <c r="C4" s="3">
-        <v>-70.094999999999999</v>
+        <v>-117.37</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B5" s="3">
-        <v>127.8475</v>
+        <v>130.66</v>
       </c>
       <c r="C5" s="3">
-        <v>-93</v>
+        <v>-72.090500000000006</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="3">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3">
-        <v>149.80250000000001</v>
+        <v>127.8475</v>
       </c>
       <c r="C6" s="3">
-        <v>-105.4075</v>
+        <v>-93</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -553,47 +556,47 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3">
-        <v>146.06</v>
+        <v>144.71</v>
       </c>
       <c r="C7" s="3">
-        <v>-105.6275</v>
+        <v>-106.6</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="3">
-        <v>-90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3">
-        <v>154.12</v>
+        <v>140.91999999999999</v>
       </c>
       <c r="C8" s="3">
-        <v>-105.56</v>
+        <v>-107.5</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="3">
-        <v>90</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B9" s="3">
-        <v>152.55000000000001</v>
+        <v>149.0275</v>
       </c>
       <c r="C9" s="3">
-        <v>-105.55</v>
+        <v>-106.7525</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
@@ -604,79 +607,98 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>139.84</v>
+        <v>147.45750000000001</v>
       </c>
       <c r="C10" s="3">
-        <v>-106.83</v>
+        <v>-106.74250000000001</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" s="3">
-        <v>142.86000000000001</v>
+        <v>144.13</v>
       </c>
       <c r="C11" s="3">
-        <v>-106.81</v>
+        <v>-112.88</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="3">
-        <v>180</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" s="3">
-        <v>145.97</v>
+        <v>142.31</v>
       </c>
       <c r="C12" s="3">
-        <v>-102.86750000000001</v>
+        <v>-112.9</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="3">
-        <v>180</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3">
+        <v>140.93</v>
+      </c>
+      <c r="C13" s="3">
+        <v>-104.22</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B14" s="3">
         <v>140.85</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C14" s="3">
         <v>-89.84</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="19" spans="6:6">
-      <c r="F19" t="s">
-        <v>18</v>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/CubeSat_HW/CubeSAT_Power/Gerbers_Power/CPL.xlsx
+++ b/CubeSat_HW/CubeSAT_Power/Gerbers_Power/CPL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\CubeSat\CubeSat_HW\CubeSAT_Power\Gerbers_Power\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FD0CAE-F9A1-4445-8E5B-8070183191E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475F83B3-5D3E-4EF2-9E1D-98E50B6583AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="744" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="48" windowWidth="23016" windowHeight="12192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>Designator</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>J1</t>
-  </si>
-  <si>
-    <t>J3</t>
   </si>
 </sst>
 </file>
@@ -440,7 +437,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="A5:F5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -508,10 +505,10 @@
         <v>18</v>
       </c>
       <c r="B4" s="3">
-        <v>142.24</v>
+        <v>155.88</v>
       </c>
       <c r="C4" s="3">
-        <v>-117.37</v>
+        <v>-117.38</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -522,30 +519,30 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3">
-        <v>130.66</v>
+        <v>127.8475</v>
       </c>
       <c r="C5" s="3">
-        <v>-72.090500000000006</v>
+        <v>-93</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="3">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6" s="3">
-        <v>127.8475</v>
+        <v>144.71</v>
       </c>
       <c r="C6" s="3">
-        <v>-93</v>
+        <v>-106.6</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -556,47 +553,47 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3">
-        <v>144.71</v>
+        <v>140.91999999999999</v>
       </c>
       <c r="C7" s="3">
-        <v>-106.6</v>
+        <v>-107.5</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="3">
-        <v>180</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3">
-        <v>140.91999999999999</v>
+        <v>149.0275</v>
       </c>
       <c r="C8" s="3">
-        <v>-107.5</v>
+        <v>-106.753</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="3">
-        <v>-90</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>149.0275</v>
+        <v>147.45750000000001</v>
       </c>
       <c r="C9" s="3">
-        <v>-106.7525</v>
+        <v>-106.74299999999999</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
@@ -607,30 +604,30 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3">
-        <v>147.45750000000001</v>
+        <v>157.77000000000001</v>
       </c>
       <c r="C10" s="3">
-        <v>-106.74250000000001</v>
+        <v>-112.88</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="3">
-        <v>90</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3">
-        <v>144.13</v>
+        <v>155.94999999999999</v>
       </c>
       <c r="C11" s="3">
-        <v>-112.88</v>
+        <v>-112.91</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
@@ -641,52 +638,35 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="3">
-        <v>142.31</v>
+        <v>140.88</v>
       </c>
       <c r="C12" s="3">
-        <v>-112.9</v>
+        <v>-104.33</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="3">
-        <v>-90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B13" s="3">
-        <v>140.93</v>
+        <v>140.85</v>
       </c>
       <c r="C13" s="3">
-        <v>-104.22</v>
+        <v>-89.84</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="3">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3">
-        <v>140.85</v>
-      </c>
-      <c r="C14" s="3">
-        <v>-89.84</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="3">
         <v>0</v>
       </c>
     </row>
